--- a/analysis/Pressure Calibration/50psi.xlsx
+++ b/analysis/Pressure Calibration/50psi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam-n-Abbs\Documents\GitHub\liquid-engine-test-stand\analysis\Pressure Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28087AB8-80D0-4B65-B99F-31BF77609B0B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9406852-5F42-4F83-A752-C4E44017F6CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
     <sheet name="Simple Data with Plots" sheetId="4" r:id="rId2"/>
     <sheet name="Interactive Bar Graph" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>Move this sheet to 1st tab position to accept data</t>
   </si>
@@ -87,11 +87,26 @@
   <si>
     <t xml:space="preserve"> 5:02:32 PM</t>
   </si>
+  <si>
+    <t>1 ave</t>
+  </si>
+  <si>
+    <t>2 ave</t>
+  </si>
+  <si>
+    <t>3 ave</t>
+  </si>
+  <si>
+    <t>4 ave</t>
+  </si>
+  <si>
+    <t>5 ave</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1413,12 +1428,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1445,7 @@
     <col min="7" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1473,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
@@ -1483,8 +1498,15 @@
       <c r="H2" s="1">
         <v>850</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(D2:D66)</f>
+        <v>1149.3846153846155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
@@ -1509,8 +1531,15 @@
       <c r="H3" s="1">
         <v>854</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(E2:E66)</f>
+        <v>319.46153846153845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>11</v>
       </c>
@@ -1535,8 +1564,15 @@
       <c r="H4" s="1">
         <v>848</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(F2:F66)</f>
+        <v>782.3384615384615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -1561,8 +1597,15 @@
       <c r="H5" s="1">
         <v>856</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <f>AVERAGE(G2:G66)</f>
+        <v>275.15384615384613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -1587,8 +1630,15 @@
       <c r="H6" s="1">
         <v>835</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <f>AVERAGE(H2:H66)</f>
+        <v>847.44615384615383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -1614,7 +1664,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +1690,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
@@ -1666,7 +1716,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -1692,7 +1742,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
@@ -1718,7 +1768,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1794,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
@@ -1770,7 +1820,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1846,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
@@ -1822,7 +1872,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
@@ -3156,7 +3206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
@@ -3206,7 +3256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
